--- a/php-spreadsheet/template/estimate-template.xlsx
+++ b/php-spreadsheet/template/estimate-template.xlsx
@@ -11,6 +11,7 @@
     <sheet name="見積書" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">見積書!$C$2:$K$53</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">見積書!$C$2:$K$52</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t xml:space="preserve">見　積　書</t>
   </si>
@@ -150,6 +151,9 @@
   <si>
     <t xml:space="preserve">合計</t>
   </si>
+  <si>
+    <t xml:space="preserve">aaaaaaa</t>
+  </si>
 </sst>
 </file>
 
@@ -164,7 +168,7 @@
     <numFmt numFmtId="169" formatCode="mm\月dd\日"/>
     <numFmt numFmtId="170" formatCode="&quot;見積書番号： &quot;0_);[RED]\(0\)"/>
     <numFmt numFmtId="171" formatCode="\¥#,##0\-;[RED]&quot;¥-&quot;#,##0\-"/>
-    <numFmt numFmtId="172" formatCode="\ @"/>
+    <numFmt numFmtId="172" formatCode="@"/>
     <numFmt numFmtId="173" formatCode="0"/>
     <numFmt numFmtId="174" formatCode="&quot;  &quot;@"/>
     <numFmt numFmtId="175" formatCode="&quot;  &quot;[$-411]&quot;ggge年m月d日&quot;;@"/>
@@ -695,7 +699,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="90">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -708,10 +712,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -764,10 +764,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
@@ -797,7 +793,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="171" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="3" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1074,8 +1070,8 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="標準 2" xfId="20"/>
     <cellStyle name="通貨 2" xfId="21"/>
-    <cellStyle name="Excel Built-in Comma [0]" xfId="22"/>
-    <cellStyle name="Excel Built-in Currency [0]" xfId="23"/>
+    <cellStyle name="Excel Built-in Comma [0] 1" xfId="22"/>
+    <cellStyle name="Excel Built-in Currency [0] 2" xfId="23"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1153,16 +1149,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>21600</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1195200</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>106920</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>372240</xdr:colOff>
+      <xdr:colOff>104400</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1175,8 +1171,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5584680" y="1240200"/>
-          <a:ext cx="1414800" cy="387000"/>
+          <a:off x="5317920" y="1212120"/>
+          <a:ext cx="1414440" cy="386640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1191,15 +1187,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>21240</xdr:colOff>
+      <xdr:colOff>411480</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>74880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>920520</xdr:colOff>
+      <xdr:colOff>548280</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>168840</xdr:rowOff>
+      <xdr:rowOff>168480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1208,19 +1204,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="640080" y="12371400"/>
-          <a:ext cx="7777800" cy="265320"/>
+          <a:off x="1031040" y="12371400"/>
+          <a:ext cx="7015320" cy="264960"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="92d050"/>
           </a:solidFill>
@@ -1250,9 +1243,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>925560</xdr:colOff>
+      <xdr:colOff>925200</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>50040</xdr:rowOff>
+      <xdr:rowOff>49680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1265,8 +1258,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4332600" y="11559960"/>
-          <a:ext cx="714600" cy="957960"/>
+          <a:off x="4333680" y="11559960"/>
+          <a:ext cx="714240" cy="957600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1281,13 +1274,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>649440</xdr:colOff>
+      <xdr:colOff>650160</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>177480</xdr:colOff>
+      <xdr:colOff>177840</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
@@ -1302,8 +1295,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1" rot="1255800">
-          <a:off x="3861360" y="11366640"/>
-          <a:ext cx="437400" cy="251280"/>
+          <a:off x="3863520" y="11367000"/>
+          <a:ext cx="436680" cy="250920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1318,15 +1311,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>474480</xdr:colOff>
+      <xdr:colOff>475200</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>236880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2520</xdr:colOff>
+      <xdr:colOff>2880</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>126000</xdr:rowOff>
+      <xdr:rowOff>125640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1339,8 +1332,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1" rot="20583600">
-          <a:off x="3686400" y="11828160"/>
-          <a:ext cx="437400" cy="251280"/>
+          <a:off x="3688560" y="11828160"/>
+          <a:ext cx="436680" cy="250920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1360,13 +1353,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="B2:Y48"/>
+  <dimension ref="B2:Y49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A5" colorId="64" zoomScale="45" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O21" activeCellId="0" sqref="O21"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A13" colorId="64" zoomScale="45" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q27" activeCellId="0" sqref="Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="3.1328125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="4.87"/>
@@ -1374,7 +1367,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="5.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.75"/>
@@ -1385,7 +1378,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="9.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="9.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="6.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="6.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="13.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="9.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="8.5"/>
@@ -1405,636 +1398,641 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" s="3" customFormat="true" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C3" s="4" t="s">
+    <row r="3" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H5" s="5" t="n">
+      <c r="H5" s="4" t="n">
         <v>44172</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="8"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="N10" s="14"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="N10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="H11" s="16" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="H11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="H12" s="16" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="H12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="18" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="H14" s="20" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="H14" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E15" s="21"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="22" t="s">
+      <c r="E15" s="19"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F16" s="23"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25" t="n">
+      <c r="D17" s="22"/>
+      <c r="E17" s="23" t="n">
         <f aca="false">K47</f>
         <v>1995400</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31" t="s">
+      <c r="D20" s="28"/>
+      <c r="E20" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="N20" s="33"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="N20" s="31"/>
     </row>
     <row r="21" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35" t="s">
+      <c r="D21" s="32"/>
+      <c r="E21" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="N21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="N21" s="31"/>
     </row>
     <row r="22" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
     </row>
     <row r="23" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="41" t="n">
+      <c r="D23" s="32"/>
+      <c r="E23" s="39" t="n">
         <v>44651</v>
       </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="W24" s="9"/>
+      <c r="W24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="W25" s="9"/>
+      <c r="W25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="W26" s="9"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="W26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="44"/>
-      <c r="C27" s="45" t="s">
+      <c r="B27" s="42"/>
+      <c r="C27" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47" t="s">
+      <c r="E27" s="44"/>
+      <c r="F27" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="47"/>
-      <c r="H27" s="48" t="s">
+      <c r="G27" s="45"/>
+      <c r="H27" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="48" t="s">
+      <c r="I27" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="J27" s="49" t="s">
+      <c r="J27" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="K27" s="49" t="s">
+      <c r="K27" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="N27" s="50"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="51"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="50"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="50"/>
+      <c r="Y27" s="48"/>
     </row>
     <row r="28" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C28" s="53"/>
-      <c r="D28" s="54" t="s">
+      <c r="C28" s="51"/>
+      <c r="D28" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="54"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="56" t="n">
+      <c r="E28" s="52"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="54" t="n">
         <v>826200</v>
       </c>
-      <c r="I28" s="57" t="n">
+      <c r="I28" s="55" t="n">
         <v>1</v>
       </c>
-      <c r="J28" s="58" t="s">
+      <c r="J28" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="K28" s="59" t="n">
+      <c r="K28" s="57" t="n">
         <f aca="false">IF(H28="","",H28*I28)</f>
         <v>826200</v>
       </c>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="50"/>
-      <c r="Y28" s="50"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="48"/>
     </row>
     <row r="29" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="60"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="54" t="s">
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="54"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="56" t="n">
+      <c r="E29" s="52"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="54" t="n">
         <f aca="false">436960</f>
         <v>436960</v>
       </c>
-      <c r="I29" s="57" t="n">
+      <c r="I29" s="55" t="n">
         <v>1</v>
       </c>
-      <c r="J29" s="58" t="s">
+      <c r="J29" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="K29" s="59" t="n">
+      <c r="K29" s="57" t="n">
         <f aca="false">IF(H29="","",H29*I29)</f>
         <v>436960</v>
       </c>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
     </row>
     <row r="30" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C30" s="53"/>
-      <c r="D30" s="54" t="s">
+      <c r="C30" s="51"/>
+      <c r="D30" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="54"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="56" t="n">
+      <c r="E30" s="52"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="54" t="n">
         <f aca="false">30000</f>
         <v>30000</v>
       </c>
-      <c r="I30" s="57" t="n">
+      <c r="I30" s="55" t="n">
         <v>1</v>
       </c>
-      <c r="J30" s="58" t="s">
+      <c r="J30" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="K30" s="59" t="n">
+      <c r="K30" s="57" t="n">
         <f aca="false">IF(H30="","",H30*I30)</f>
         <v>30000</v>
       </c>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="50"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="48"/>
     </row>
     <row r="31" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C31" s="53"/>
-      <c r="D31" s="62" t="s">
+      <c r="C31" s="51"/>
+      <c r="D31" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="62"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="56" t="n">
+      <c r="E31" s="60"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="54" t="n">
         <f aca="false">102400</f>
         <v>102400</v>
       </c>
-      <c r="I31" s="57" t="n">
+      <c r="I31" s="55" t="n">
         <v>1</v>
       </c>
-      <c r="J31" s="58" t="s">
+      <c r="J31" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="K31" s="59" t="n">
+      <c r="K31" s="57" t="n">
         <f aca="false">IF(H31="","",H31*I31)</f>
         <v>102400</v>
       </c>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="50"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48"/>
+      <c r="W31" s="48"/>
+      <c r="X31" s="48"/>
+      <c r="Y31" s="48"/>
     </row>
     <row r="32" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C32" s="53"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="59" t="n">
+      <c r="C32" s="51"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="57" t="n">
         <f aca="false">H32*I32</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C33" s="53"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="59" t="n">
+      <c r="C33" s="51"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="57" t="n">
         <f aca="false">H33*I33</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C34" s="53"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="59" t="n">
+      <c r="C34" s="51"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="57" t="n">
         <f aca="false">H34*I34</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C35" s="53"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="59"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="57"/>
     </row>
     <row r="36" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C36" s="53"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="59"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="57"/>
     </row>
     <row r="37" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C37" s="53"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="59"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="57"/>
     </row>
     <row r="38" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C38" s="53"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="59"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="57"/>
     </row>
     <row r="39" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C39" s="65"/>
-      <c r="D39" s="66" t="s">
+      <c r="C39" s="63"/>
+      <c r="D39" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="66"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="70"/>
-      <c r="K39" s="71" t="n">
+      <c r="E39" s="64"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="69" t="n">
         <f aca="false">SUM(K28:K38)</f>
         <v>1395560</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C40" s="53"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="59"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="57"/>
     </row>
     <row r="41" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C41" s="53"/>
-      <c r="D41" s="54" t="s">
+      <c r="C41" s="51"/>
+      <c r="D41" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="55" t="s">
+      <c r="E41" s="52"/>
+      <c r="F41" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="G41" s="55"/>
-      <c r="H41" s="72" t="n">
+      <c r="G41" s="53"/>
+      <c r="H41" s="70" t="n">
         <f aca="false">SUM(K39)</f>
         <v>1395560</v>
       </c>
-      <c r="I41" s="57"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="59" t="n">
+      <c r="I41" s="55"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="57" t="n">
         <v>418440</v>
       </c>
-      <c r="Q41" s="73"/>
+      <c r="Q41" s="71"/>
     </row>
     <row r="42" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C42" s="53"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="59"/>
-      <c r="N42" s="74"/>
-      <c r="O42" s="75"/>
-      <c r="P42" s="75"/>
-      <c r="Q42" s="76"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="57"/>
+      <c r="N42" s="72"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="73"/>
+      <c r="Q42" s="74"/>
     </row>
     <row r="43" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C43" s="53"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="59"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="57"/>
     </row>
     <row r="44" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C44" s="77"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="82"/>
-      <c r="K44" s="83" t="str">
+      <c r="C44" s="75"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="79"/>
+      <c r="J44" s="80"/>
+      <c r="K44" s="81" t="str">
         <f aca="false">IF(I44="","",H44*I44)</f>
         <v/>
       </c>
     </row>
     <row r="45" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="85" t="s">
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="86" t="n">
+      <c r="I45" s="83"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="84" t="n">
         <f aca="false">SUM(K39:K44)</f>
         <v>1814000</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H46" s="87" t="s">
+      <c r="H46" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="I46" s="87"/>
-      <c r="J46" s="87"/>
-      <c r="K46" s="86" t="n">
+      <c r="I46" s="85"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="84" t="n">
         <f aca="false">ROUNDDOWN(K45*10%,0)</f>
         <v>181400</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="H47" s="88" t="s">
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="H47" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="I47" s="88"/>
-      <c r="J47" s="88"/>
-      <c r="K47" s="89" t="n">
+      <c r="I47" s="86"/>
+      <c r="J47" s="86"/>
+      <c r="K47" s="87" t="n">
         <f aca="false">SUM(K45:K46)</f>
         <v>1995400</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C48" s="90"/>
-      <c r="D48" s="90"/>
-      <c r="E48" s="91"/>
-      <c r="F48" s="91"/>
-      <c r="G48" s="91"/>
-      <c r="H48" s="91"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="88"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K49" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="68">
